--- a/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 днрсч.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 днрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\03,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\03,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0857B7FB-7371-4334-B09A-50163191D1F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3ACED-07B0-4604-A56A-5A1D66D791DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="151">
   <si>
     <t>Период: 27.12.2023 - 03.01.2024</t>
   </si>
@@ -487,6 +487,9 @@
   <si>
     <t>то же что и 451/ увеличить продажи</t>
   </si>
+  <si>
+    <t>05,01,</t>
+  </si>
 </sst>
 </file>
 
@@ -503,6 +506,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -707,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -784,6 +789,7 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10618,7 +10624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -10646,6 +10652,9 @@
     <row r="2" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -10690,7 +10699,7 @@
       <c r="P3" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="34" t="s">
         <v>131</v>
       </c>
       <c r="R3" s="15" t="s">
@@ -10756,7 +10765,9 @@
       <c r="P4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="R4" s="15" t="s">
         <v>139</v>
       </c>
